--- a/Data/Private_Channel.xlsx
+++ b/Data/Private_Channel.xlsx
@@ -29,19 +29,19 @@
     <t>Channel_Name</t>
   </si>
   <si>
-    <t>42c0G8chdfPrivate</t>
-  </si>
-  <si>
-    <t>K1JeaNyXLKPrivate</t>
-  </si>
-  <si>
-    <t>q1p4rByDUMPrivate</t>
-  </si>
-  <si>
-    <t>gbDGbBi4iyPrivate</t>
-  </si>
-  <si>
-    <t>1HDHFClGY4Private</t>
+    <t>2c0G8chdfPrivate</t>
+  </si>
+  <si>
+    <t>1JeaNyXLKPrivate</t>
+  </si>
+  <si>
+    <t>1p4rByDUMPrivate</t>
+  </si>
+  <si>
+    <t>bDGbBi4iyPrivate</t>
+  </si>
+  <si>
+    <t>HDHFClGY4Private</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
